--- a/mapping/ENVO_metadata4Ing.xlsx
+++ b/mapping/ENVO_metadata4Ing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>ENVO_IRI</t>
   </si>
@@ -22,10 +22,13 @@
     <t>ENVO_DESC</t>
   </si>
   <si>
-    <t>metadata4Ing_IRI</t>
-  </si>
-  <si>
-    <t>metadata4Ing_DESC</t>
+    <t>metadata4ing_IRI</t>
+  </si>
+  <si>
+    <t>metadata4ing_DESC</t>
+  </si>
+  <si>
+    <t>metadata4ing_DEF</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
@@ -40,6 +43,9 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_50906</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_03501196</t>
+  </si>
+  <si>
     <t>{'iri': 'http://purl.obolibrary.org/obo/BFO_0000015'}</t>
   </si>
   <si>
@@ -52,13 +58,34 @@
     <t>{'label': 'Role', 'prefLabel': None, 'altLabel': None, 'name': 'CHEBI_50906'}</t>
   </si>
   <si>
+    <t>{'label': 'group', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_03501196'}</t>
+  </si>
+  <si>
     <t>http://www.w3.org/ns/prov#Role</t>
   </si>
   <si>
+    <t>http://xmlns.com/foaf/0.1/Group</t>
+  </si>
+  <si>
     <t>{'prefLabel': 'role', 'name': 'role'}</t>
   </si>
   <si>
     <t>{'prefLabel': 'Role', 'name': 'Role'}</t>
+  </si>
+  <si>
+    <t>{'label': 'group', 'prefLabel': 'group', 'name': 'group'}</t>
+  </si>
+  <si>
+    <t>['p is a process if p is an occurrent that has temporal proper parts and for some time t, p specifically depends on some material entity at t. [BFO]', locstr("Process, i.e., a physical entity with a temporal evolution that 'has a meaning for the ontologist'", 'en')]</t>
+  </si>
+  <si>
+    <t>['To say that b is a realizable entity is to say that b is a specifically dependent continuant that inheres in some independent continuant which is not a spatial region and is of a type instances of which are realized in processes of a correlated type.´[BFO]', 'To say that b is a realizable entity is to say that b is a specifically dependent continuant that inheres in some independent continuant which is not a spatial region and is of a type instances of which are realized in processes of a correlated type. (axiom label in BFO2 Reference: [058-002])']</t>
+  </si>
+  <si>
+    <t>[locstr('A role is the function of an entity or agent with respect to an activity, in the context of a usage, generation, invalidation, association, start, and end.', 'en')]</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -429,13 +456,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,73 +475,108 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -527,6 +589,8 @@
     <hyperlink ref="D4" r:id="rId6" location="Role"/>
     <hyperlink ref="B5" r:id="rId7"/>
     <hyperlink ref="D5" r:id="rId8" location="Role"/>
+    <hyperlink ref="B6" r:id="rId9"/>
+    <hyperlink ref="D6" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
